--- a/xlsx/电脑_intext.xlsx
+++ b/xlsx/电脑_intext.xlsx
@@ -15,21 +15,21 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="630">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" uniqueCount="622">
   <si>
     <t>电脑</t>
   </si>
   <si>
-    <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E8%84%91</t>
+    <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E8%85%A6</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A8%88%E7%AE%97%E6%A9%9F_(%E6%B6%88%E6%AD%A7%E7%BE%A9)</t>
   </si>
   <si>
-    <t>計算機 (消歧義)</t>
-  </si>
-  <si>
-    <t>政策_政策_美國_电脑</t>
+    <t>计算机 (消歧义)</t>
+  </si>
+  <si>
+    <t>政策_政策_混合动力车辆_电脑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%AA%E4%BA%BA%E7%94%B5%E8%84%91</t>
@@ -119,7 +119,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A9%9F%E5%99%A8%E4%BA%BA</t>
   </si>
   <si>
-    <t>機器人</t>
+    <t>机器人</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%95%B0%E7%A0%81%E7%9B%B8%E6%9C%BA</t>
@@ -167,7 +167,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%BD%92%E8%BC%AA</t>
   </si>
   <si>
-    <t>齒輪</t>
+    <t>齿轮</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E8%8E%B1%E5%A3%AB%C2%B7%E5%B8%95%E6%96%AF%E5%8D%A1</t>
@@ -215,7 +215,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B5%AB%E7%88%BE%E6%9B%BC%C2%B7%E4%BD%95%E6%A8%82%E7%A6%AE</t>
   </si>
   <si>
-    <t>赫爾曼·何樂禮</t>
+    <t>赫尔曼·何乐礼</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%A8%A1%E6%8B%9F%E8%AE%A1%E7%AE%97%E6%9C%BA</t>
@@ -263,7 +263,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BA%B7%E6%8B%89%E5%BE%B7%C2%B7%E6%A5%9A%E6%BE%A4</t>
   </si>
   <si>
-    <t>康拉德·楚澤</t>
+    <t>康拉德·楚泽</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%9B%BE%E7%81%B5%E5%AE%8C%E5%85%A8</t>
@@ -281,7 +281,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A6%AC%E5%85%8B%E4%B8%80%E8%99%9F</t>
   </si>
   <si>
-    <t>馬克一號</t>
+    <t>马克一号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/ENIAC</t>
@@ -293,37 +293,37 @@
     <t>https://zh.wikipedia.org/wiki/%E7%AC%AC%E4%BA%8C%E6%AC%A1%E4%B8%96%E7%95%8C%E5%A4%A7%E6%88%B0</t>
   </si>
   <si>
-    <t>第二次世界大戰</t>
+    <t>第二次世界大战</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BD%9F%E7%82%B8%E6%A9%9F</t>
   </si>
   <si>
-    <t>轟炸機</t>
+    <t>轰炸机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B%E6%B5%B7%E8%BB%8D</t>
   </si>
   <si>
-    <t>美國海軍</t>
+    <t>美国海军</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BA%BB%E7%9C%81%E7%90%86%E5%B7%A5%E5%AD%B8%E9%99%A2</t>
   </si>
   <si>
-    <t>麻省理工學院</t>
+    <t>麻省理工学院</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%A3%9B%E8%A1%8C%E6%A8%A1%E6%93%AC%E5%99%A8</t>
   </si>
   <si>
-    <t>飛行模擬器</t>
+    <t>飞行模拟器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%84%80%E8%A1%A8%E7%9B%A4</t>
   </si>
   <si>
-    <t>儀表盤</t>
+    <t>仪表盘</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A9%BA%E6%B0%94%E5%8A%A8%E5%8A%9B%E5%AD%A6</t>
@@ -335,7 +335,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%97%8B%E9%A2%A8%E9%9B%BB%E8%85%A6</t>
   </si>
   <si>
-    <t>旋風電腦</t>
+    <t>旋风电脑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%86%AF%C2%B7%E8%AF%BA%E4%BC%8A%E6%9B%BC%E7%BB%93%E6%9E%84</t>
@@ -347,13 +347,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BB%B6%E9%81%B2%E5%AD%98%E5%84%B2%E9%9B%BB%E5%AD%90%E8%87%AA%E5%8B%95%E8%A8%88%E7%AE%97%E5%99%A8</t>
   </si>
   <si>
-    <t>延遲存儲電子自動計算器</t>
+    <t>延迟存储电子自动计算器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E7%89%B9%E7%88%BE</t>
   </si>
   <si>
-    <t>英特爾</t>
+    <t>英特尔</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BD%97%E4%BC%AF%E7%89%B9%C2%B7%E8%AF%BA%E4%BC%8A%E6%96%AF</t>
@@ -371,7 +371,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%A9%8D%E9%AB%94%E9%9B%BB%E8%B7%AF</t>
   </si>
   <si>
-    <t>積體電路</t>
+    <t>积体电路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/System/360</t>
@@ -389,7 +389,7 @@
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9C%8B</t>
   </si>
   <si>
-    <t>美國</t>
+    <t>美国</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E7%89%B9%E5%B0%94%E5%85%AC%E5%8F%B8</t>
@@ -401,7 +401,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E8%99%95%E7%90%86%E5%99%A8</t>
   </si>
   <si>
-    <t>微處理器</t>
+    <t>微处理器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/INTEL</t>
@@ -419,7 +419,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%B2%E8%92%82%E5%A4%AB%C2%B7%E8%B3%88%E4%BC%AF%E6%96%AF</t>
   </si>
   <si>
-    <t>史蒂夫·賈伯斯</t>
+    <t>史蒂夫·贾伯斯</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%96%AF%E8%92%82%E5%A4%AB%C2%B7%E6%B2%83%E5%85%B9%E5%B0%BC%E4%BA%9A%E5%85%8B</t>
@@ -431,7 +431,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%98%8B%E6%9E%9C%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>蘋果公司</t>
+    <t>苹果公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Apple_I</t>
@@ -455,7 +455,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E9%9B%BB%E8%85%A6</t>
   </si>
   <si>
-    <t>微電腦</t>
+    <t>微电脑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Commodore_64</t>
@@ -473,25 +473,22 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E8%BB%9F</t>
   </si>
   <si>
-    <t>微軟</t>
+    <t>微软</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E5%AA%92%E9%AB%94</t>
   </si>
   <si>
-    <t>多媒體</t>
+    <t>多媒体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%80%8B%E4%BA%BA%E9%9B%BB%E8%85%A6</t>
   </si>
   <si>
-    <t>個人電腦</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E5%85%89%E7%A2%9F%E6%A9%9F</t>
   </si>
   <si>
-    <t>光碟機</t>
+    <t>光碟机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Intel</t>
@@ -509,13 +506,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%9E%A2%E5%B9%95</t>
   </si>
   <si>
-    <t>螢幕</t>
+    <t>萤幕</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%B8%BB%E6%A9%9F%E6%9D%BF</t>
   </si>
   <si>
-    <t>主機板</t>
+    <t>主机板</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/CPU</t>
@@ -527,7 +524,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A8%98%E6%86%B6%E9%AB%94</t>
   </si>
   <si>
-    <t>記憶體</t>
+    <t>记忆体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BB%8B%E9%9D%A2%E5%8D%A1</t>
@@ -551,7 +548,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E6%BA%90%E4%BE%9B%E6%87%89%E5%99%A8</t>
   </si>
   <si>
-    <t>電源供應器</t>
+    <t>电源供应器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BD%AF%E9%A9%B1</t>
@@ -569,7 +566,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%8D%B5%E7%9B%A4</t>
   </si>
   <si>
-    <t>鍵盤</t>
+    <t>键盘</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%BC%A0%E6%A0%87</t>
@@ -623,9 +620,6 @@
     <t>https://zh.wikipedia.org/wiki/%E9%94%AE%E7%9B%98</t>
   </si>
   <si>
-    <t>键盘</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%98%BE%E7%A4%BA%E5%99%A8</t>
   </si>
   <si>
@@ -647,9 +641,6 @@
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E5%A4%84%E7%90%86%E5%99%A8</t>
   </si>
   <si>
-    <t>微处理器</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%97%B6%E9%92%9F%E5%91%A8%E6%9C%9F</t>
   </si>
   <si>
@@ -677,13 +668,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%93%88%E4%BD%9B%E6%9E%B6%E6%A7%8B</t>
   </si>
   <si>
-    <t>哈佛架構</t>
+    <t>哈佛架构</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%86%E6%88%90%E9%9B%BB%E8%B7%AF</t>
   </si>
   <si>
-    <t>集成電路</t>
+    <t>集成电路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B8%83%E5%B0%94%E8%BF%90%E7%AE%97</t>
@@ -725,9 +716,6 @@
     <t>https://zh.wikipedia.org/wiki/%E6%9C%BA%E5%99%A8%E4%BA%BA</t>
   </si>
   <si>
-    <t>机器人</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%A9%E9%9F%B3%E5%99%A8</t>
   </si>
   <si>
@@ -773,15 +761,12 @@
     <t>https://zh.wikipedia.org/wiki/Ada%E8%AA%9E%E8%A8%80</t>
   </si>
   <si>
-    <t>Ada語言</t>
+    <t>Ada语言</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%BE%AE%E8%BD%AF</t>
   </si>
   <si>
-    <t>微软</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/Windows_XP</t>
   </si>
   <si>
@@ -827,13 +812,10 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B9%E6%9E%9C%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>苹果公司</t>
-  </si>
-  <si>
     <t>https://zh.wikipedia.org/wiki/%E6%88%B0%E8%A1%93%E6%95%B8%E4%BD%8D%E8%B3%87%E8%A8%8A%E9%8F%88%E8%B7%AF</t>
   </si>
   <si>
-    <t>戰術數位資訊鏈路</t>
+    <t>战术数位资讯链路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%81%AB%E7%82%AE</t>
@@ -899,7 +881,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%98%BF%E6%B3%A2%E7%BE%851%E8%99%9F</t>
   </si>
   <si>
-    <t>阿波羅1號</t>
+    <t>阿波罗1号</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A7%91%E5%B9%BB%E5%B0%8F%E8%AF%B4</t>
@@ -1013,7 +995,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%A8%88%E7%AE%97%E6%A9%9F%E5%B7%A5%E7%A8%8B</t>
   </si>
   <si>
-    <t>計算機工程</t>
+    <t>计算机工程</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BF%A1%E6%81%AF%E7%B3%BB%E7%BB%9F</t>
@@ -1031,7 +1013,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%8B%B1%E5%9C%8B%E9%9B%BB%E8%85%A6%E5%AD%B8%E6%9C%83</t>
   </si>
   <si>
-    <t>英國電腦學會</t>
+    <t>英国电脑学会</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E8%AE%A1%E7%AE%97%E6%9C%BA%E5%8D%8F%E4%BC%9A</t>
@@ -1049,25 +1031,25 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E7%B4%9A%E9%9B%BB%E8%85%A6</t>
   </si>
   <si>
-    <t>超級電腦</t>
+    <t>超级电脑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B5%84%E8%A3%9D%E9%9B%BB%E8%85%A6</t>
   </si>
   <si>
-    <t>組裝電腦</t>
+    <t>组装电脑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A8%88%E7%AE%97%E6%A9%9F%E7%A1%AC%E9%AB%94%E6%AD%B7%E5%8F%B2</t>
   </si>
   <si>
-    <t>計算機硬體歷史</t>
+    <t>计算机硬体历史</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B3%87%E8%A8%8A%E8%A8%AD%E5%82%99</t>
   </si>
   <si>
-    <t>資訊設備</t>
+    <t>资讯设备</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%A1%AC%E4%BB%B6</t>
@@ -1079,7 +1061,7 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BB%9F%E9%AB%94</t>
   </si>
   <si>
-    <t>軟體</t>
+    <t>软体</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%BA%E6%9C%BA%E7%95%8C%E9%9D%A2</t>
@@ -1091,31 +1073,25 @@
     <t>https://zh.wikipedia.org/wiki/%E4%BD%9C%E6%A5%AD%E7%B3%BB%E7%B5%B1</t>
   </si>
   <si>
-    <t>作業系統</t>
+    <t>作业系统</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%98%8B%E6%9E%9C%E9%9B%BB%E8%85%A6</t>
   </si>
   <si>
-    <t>蘋果電腦</t>
+    <t>苹果电脑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B4%8D%E6%96%AF%E9%81%94%E5%85%8B</t>
   </si>
   <si>
-    <t>納斯達克</t>
+    <t>纳斯达克</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%B6%B2%E9%9A%9B%E7%B6%B2%E8%B7%AF</t>
   </si>
   <si>
-    <t>網際網路</t>
-  </si>
-  <si>
-    <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E8%85%A6</t>
-  </si>
-  <si>
-    <t>電腦</t>
+    <t>网际网路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E7%BA%A7%E8%AE%A1%E7%AE%97%E6%9C%BA</t>
@@ -1175,7 +1151,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%A1%8C%E4%B8%8A%E5%9E%8B%E9%9B%BB%E8%85%A6</t>
   </si>
   <si>
-    <t>桌上型電腦</t>
+    <t>桌上型电脑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%A5%E4%BD%9C%E7%AB%99</t>
@@ -1187,7 +1163,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E7%AB%B6%E9%9B%BB%E8%85%A6</t>
   </si>
   <si>
-    <t>電競電腦</t>
+    <t>电竞电脑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%B6%E7%94%A8%E7%94%B5%E8%84%91</t>
@@ -1199,7 +1175,7 @@
     <t>https://zh.wikipedia.org/wiki/%E4%B8%80%E9%AB%94%E6%A9%9F</t>
   </si>
   <si>
-    <t>一體機</t>
+    <t>一体机</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Small_form_factor</t>
@@ -1211,13 +1187,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%BF%B7%E4%BD%A0%E6%A1%8C%E4%B8%8A%E5%9E%8B%E9%9B%BB%E8%85%A6</t>
   </si>
   <si>
-    <t>迷你桌上型電腦</t>
+    <t>迷你桌上型电脑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%AD%86%E8%A8%98%E5%9E%8B%E9%9B%BB%E8%85%A6</t>
   </si>
   <si>
-    <t>筆記型電腦</t>
+    <t>笔记型电脑</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Desktop_replacement_computer</t>
@@ -1247,13 +1223,13 @@
     <t>https://zh.wikipedia.org/wiki/%E8%B6%85%E6%A5%B5%E8%87%B4%E7%AD%86%E9%9B%BB</t>
   </si>
   <si>
-    <t>超極致筆電</t>
+    <t>超极致笔电</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B9%B3%E6%9D%BF%E9%9B%BB%E8%85%A6</t>
   </si>
   <si>
-    <t>平板電腦</t>
+    <t>平板电脑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/Internet_tablet</t>
@@ -1307,7 +1283,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8A%9F%E8%83%BD%E5%9E%8B%E6%89%8B%E6%A9%9F</t>
   </si>
   <si>
-    <t>功能型手機</t>
+    <t>功能型手机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%BA%E8%83%BD%E6%89%8B%E6%9C%BA</t>
@@ -1325,7 +1301,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%AF%E6%94%9C%E5%BC%8F%E5%AA%92%E9%AB%94%E6%92%AD%E6%94%BE%E5%99%A8</t>
   </si>
   <si>
-    <t>可攜式媒體播放器</t>
+    <t>可携式媒体播放器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%AE%A1%E7%AE%97%E5%99%A8</t>
@@ -1355,13 +1331,13 @@
     <t>https://zh.wikipedia.org/wiki/%E5%8F%AF%E7%A9%BF%E6%88%B4%E5%BC%8F%E9%9B%BB%E8%85%A6</t>
   </si>
   <si>
-    <t>可穿戴式電腦</t>
+    <t>可穿戴式电脑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%89%8B%E9%8C%B6</t>
   </si>
   <si>
-    <t>手錶</t>
+    <t>手表</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Calculator_watch</t>
@@ -1373,7 +1349,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%BA%E6%85%A7%E5%9E%8B%E6%89%8B%E9%8C%B6</t>
   </si>
   <si>
-    <t>智慧型手錶</t>
+    <t>智慧型手表</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Virtual_retinal_display</t>
@@ -1385,19 +1361,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%A0%AD%E6%88%B4%E5%BC%8F%E9%A1%AF%E7%A4%BA%E5%99%A8</t>
   </si>
   <si>
-    <t>頭戴式顯示器</t>
+    <t>头戴式显示器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%8A%AC%E9%A0%AD%E9%A1%AF%E7%A4%BA%E5%99%A8</t>
   </si>
   <si>
-    <t>抬頭顯示器</t>
+    <t>抬头显示器</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%AD%90%E9%81%8A%E6%88%B2%E6%A9%9F</t>
   </si>
   <si>
-    <t>電子遊戲機</t>
+    <t>电子游戏机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%A1%97%E6%9C%BA</t>
@@ -1427,19 +1403,19 @@
     <t>https://zh.wikipedia.org/wiki/%E6%8E%8C%E4%B8%8A%E9%81%8A%E6%88%B2%E6%A9%9F</t>
   </si>
   <si>
-    <t>掌上遊戲機</t>
+    <t>掌上游戏机</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%99%BA%E8%83%BD%E9%9B%BB%E8%A6%96</t>
   </si>
   <si>
-    <t>智能電視</t>
+    <t>智能电视</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%AE%B6%E5%BA%AD%E5%8A%87%E9%99%A2%E5%80%8B%E4%BA%BA%E9%9B%BB%E8%85%A6</t>
   </si>
   <si>
-    <t>家庭劇院個人電腦</t>
+    <t>家庭剧院个人电脑</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E6%9C%BA%E9%A1%B6%E7%9B%92</t>
@@ -1457,7 +1433,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%A4%9A%E5%AA%92%E9%AB%94%E6%A9%9F%E5%8F%B0</t>
   </si>
   <si>
-    <t>多媒體機台</t>
+    <t>多媒体机台</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%87%AA%E5%8A%A8%E6%9F%9C%E5%91%98%E6%9C%BA</t>
@@ -1475,7 +1451,7 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%AD%90%E6%9B%B8%E9%96%B1%E8%AE%80%E5%99%A8</t>
   </si>
   <si>
-    <t>電子書閱讀器</t>
+    <t>电子书阅读器</t>
   </si>
   <si>
     <t>https://en.wikipedia.org/wiki/Portable_data_terminal</t>
@@ -1523,13 +1499,13 @@
     <t>https://zh.wikipedia.org/wiki/%E6%99%BA%E8%83%BD%E5%BE%AE%E5%A1%B5</t>
   </si>
   <si>
-    <t>智能微塵</t>
+    <t>智能微尘</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%84%A1%E7%B7%9A%E6%84%9F%E6%B8%AC%E7%B6%B2%E8%B7%AF</t>
   </si>
   <si>
-    <t>無線感測網路</t>
+    <t>无线感测网路</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%94%B5%E5%AD%90%E4%B9%A6</t>
@@ -1811,7 +1787,7 @@
     <t>https://zh.wikipedia.org/wiki/Google%E5%9C%96%E6%9B%B8</t>
   </si>
   <si>
-    <t>Google圖書</t>
+    <t>Google图书</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%8F%A4%E8%85%BE%E5%A0%A1%E8%AE%A1%E5%88%92</t>
@@ -1829,19 +1805,19 @@
     <t>https://zh.wikipedia.org/wiki/%E9%9D%92%E7%A9%BA%E6%96%87%E5%BA%AB</t>
   </si>
   <si>
-    <t>青空文庫</t>
+    <t>青空文库</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E4%BA%9E%E9%A6%AC%E9%81%9C%E5%85%AC%E5%8F%B8</t>
   </si>
   <si>
-    <t>亞馬遜公司</t>
+    <t>亚马逊公司</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E5%B7%B4%E8%AB%BE%E6%9B%B8%E5%BA%97</t>
   </si>
   <si>
-    <t>巴諾書店</t>
+    <t>巴诺书店</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E8%BE%B9%E7%95%8C</t>
@@ -1865,7 +1841,7 @@
     <t>https://zh.wikipedia.org/wiki/%E6%AC%8A%E5%A8%81%E6%8E%A7%E5%88%B6</t>
   </si>
   <si>
-    <t>權威控制</t>
+    <t>权威控制</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E7%BE%8E%E5%9B%BD%E5%9B%BD%E4%BC%9A%E5%9B%BE%E4%B9%A6%E9%A6%86%E6%8E%A7%E5%88%B6%E5%8F%B7</t>
@@ -1889,7 +1865,7 @@
     <t>https://zh.wikipedia.org/wiki/%E5%9C%8B%E7%AB%8B%E5%9C%8B%E6%9C%83%E5%9C%96%E6%9B%B8%E9%A4%A8</t>
   </si>
   <si>
-    <t>國立國會圖書館</t>
+    <t>国立国会图书馆</t>
   </si>
   <si>
     <t>https://zh.wikipedia.org/wiki/%E9%9B%BB%E5%AD%90%E8%A8%88%E7%AE%97%E6%A9%9F</t>
@@ -2253,7 +2229,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:I319"/>
+  <dimension ref="A1:I318"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -4508,7 +4484,7 @@
         <v>155</v>
       </c>
       <c r="F78" t="s">
-        <v>156</v>
+        <v>6</v>
       </c>
       <c r="G78" t="n">
         <v>10</v>
@@ -4534,10 +4510,10 @@
         <v>78</v>
       </c>
       <c r="E79" t="s">
+        <v>156</v>
+      </c>
+      <c r="F79" t="s">
         <v>157</v>
-      </c>
-      <c r="F79" t="s">
-        <v>158</v>
       </c>
       <c r="G79" t="n">
         <v>2</v>
@@ -4563,10 +4539,10 @@
         <v>79</v>
       </c>
       <c r="E80" t="s">
+        <v>158</v>
+      </c>
+      <c r="F80" t="s">
         <v>159</v>
-      </c>
-      <c r="F80" t="s">
-        <v>160</v>
       </c>
       <c r="G80" t="n">
         <v>7</v>
@@ -4592,10 +4568,10 @@
         <v>80</v>
       </c>
       <c r="E81" t="s">
+        <v>160</v>
+      </c>
+      <c r="F81" t="s">
         <v>161</v>
-      </c>
-      <c r="F81" t="s">
-        <v>162</v>
       </c>
       <c r="G81" t="n">
         <v>3</v>
@@ -4621,10 +4597,10 @@
         <v>81</v>
       </c>
       <c r="E82" t="s">
+        <v>162</v>
+      </c>
+      <c r="F82" t="s">
         <v>163</v>
-      </c>
-      <c r="F82" t="s">
-        <v>164</v>
       </c>
       <c r="G82" t="n">
         <v>1</v>
@@ -4650,10 +4626,10 @@
         <v>82</v>
       </c>
       <c r="E83" t="s">
+        <v>164</v>
+      </c>
+      <c r="F83" t="s">
         <v>165</v>
-      </c>
-      <c r="F83" t="s">
-        <v>166</v>
       </c>
       <c r="G83" t="n">
         <v>2</v>
@@ -4679,10 +4655,10 @@
         <v>83</v>
       </c>
       <c r="E84" t="s">
+        <v>166</v>
+      </c>
+      <c r="F84" t="s">
         <v>167</v>
-      </c>
-      <c r="F84" t="s">
-        <v>168</v>
       </c>
       <c r="G84" t="n">
         <v>1</v>
@@ -4708,10 +4684,10 @@
         <v>84</v>
       </c>
       <c r="E85" t="s">
+        <v>168</v>
+      </c>
+      <c r="F85" t="s">
         <v>169</v>
-      </c>
-      <c r="F85" t="s">
-        <v>170</v>
       </c>
       <c r="G85" t="n">
         <v>3</v>
@@ -4737,10 +4713,10 @@
         <v>85</v>
       </c>
       <c r="E86" t="s">
+        <v>170</v>
+      </c>
+      <c r="F86" t="s">
         <v>171</v>
-      </c>
-      <c r="F86" t="s">
-        <v>172</v>
       </c>
       <c r="G86" t="n">
         <v>1</v>
@@ -4766,10 +4742,10 @@
         <v>86</v>
       </c>
       <c r="E87" t="s">
+        <v>172</v>
+      </c>
+      <c r="F87" t="s">
         <v>173</v>
-      </c>
-      <c r="F87" t="s">
-        <v>174</v>
       </c>
       <c r="G87" t="n">
         <v>1</v>
@@ -4795,10 +4771,10 @@
         <v>87</v>
       </c>
       <c r="E88" t="s">
+        <v>174</v>
+      </c>
+      <c r="F88" t="s">
         <v>175</v>
-      </c>
-      <c r="F88" t="s">
-        <v>176</v>
       </c>
       <c r="G88" t="n">
         <v>1</v>
@@ -4824,10 +4800,10 @@
         <v>88</v>
       </c>
       <c r="E89" t="s">
+        <v>176</v>
+      </c>
+      <c r="F89" t="s">
         <v>177</v>
-      </c>
-      <c r="F89" t="s">
-        <v>178</v>
       </c>
       <c r="G89" t="n">
         <v>1</v>
@@ -4853,10 +4829,10 @@
         <v>89</v>
       </c>
       <c r="E90" t="s">
+        <v>178</v>
+      </c>
+      <c r="F90" t="s">
         <v>179</v>
-      </c>
-      <c r="F90" t="s">
-        <v>180</v>
       </c>
       <c r="G90" t="n">
         <v>1</v>
@@ -4882,10 +4858,10 @@
         <v>90</v>
       </c>
       <c r="E91" t="s">
+        <v>180</v>
+      </c>
+      <c r="F91" t="s">
         <v>181</v>
-      </c>
-      <c r="F91" t="s">
-        <v>182</v>
       </c>
       <c r="G91" t="n">
         <v>1</v>
@@ -4911,10 +4887,10 @@
         <v>91</v>
       </c>
       <c r="E92" t="s">
+        <v>182</v>
+      </c>
+      <c r="F92" t="s">
         <v>183</v>
-      </c>
-      <c r="F92" t="s">
-        <v>184</v>
       </c>
       <c r="G92" t="n">
         <v>1</v>
@@ -4940,10 +4916,10 @@
         <v>92</v>
       </c>
       <c r="E93" t="s">
+        <v>184</v>
+      </c>
+      <c r="F93" t="s">
         <v>185</v>
-      </c>
-      <c r="F93" t="s">
-        <v>186</v>
       </c>
       <c r="G93" t="n">
         <v>3</v>
@@ -4969,10 +4945,10 @@
         <v>93</v>
       </c>
       <c r="E94" t="s">
+        <v>186</v>
+      </c>
+      <c r="F94" t="s">
         <v>187</v>
-      </c>
-      <c r="F94" t="s">
-        <v>188</v>
       </c>
       <c r="G94" t="n">
         <v>2</v>
@@ -4998,10 +4974,10 @@
         <v>94</v>
       </c>
       <c r="E95" t="s">
+        <v>188</v>
+      </c>
+      <c r="F95" t="s">
         <v>189</v>
-      </c>
-      <c r="F95" t="s">
-        <v>190</v>
       </c>
       <c r="G95" t="n">
         <v>2</v>
@@ -5027,10 +5003,10 @@
         <v>95</v>
       </c>
       <c r="E96" t="s">
+        <v>190</v>
+      </c>
+      <c r="F96" t="s">
         <v>191</v>
-      </c>
-      <c r="F96" t="s">
-        <v>192</v>
       </c>
       <c r="G96" t="n">
         <v>6</v>
@@ -5056,10 +5032,10 @@
         <v>96</v>
       </c>
       <c r="E97" t="s">
+        <v>192</v>
+      </c>
+      <c r="F97" t="s">
         <v>193</v>
-      </c>
-      <c r="F97" t="s">
-        <v>194</v>
       </c>
       <c r="G97" t="n">
         <v>8</v>
@@ -5085,10 +5061,10 @@
         <v>97</v>
       </c>
       <c r="E98" t="s">
+        <v>194</v>
+      </c>
+      <c r="F98" t="s">
         <v>195</v>
-      </c>
-      <c r="F98" t="s">
-        <v>196</v>
       </c>
       <c r="G98" t="n">
         <v>1</v>
@@ -5114,10 +5090,10 @@
         <v>98</v>
       </c>
       <c r="E99" t="s">
+        <v>196</v>
+      </c>
+      <c r="F99" t="s">
         <v>197</v>
-      </c>
-      <c r="F99" t="s">
-        <v>198</v>
       </c>
       <c r="G99" t="n">
         <v>34</v>
@@ -5143,10 +5119,10 @@
         <v>99</v>
       </c>
       <c r="E100" t="s">
+        <v>198</v>
+      </c>
+      <c r="F100" t="s">
         <v>199</v>
-      </c>
-      <c r="F100" t="s">
-        <v>200</v>
       </c>
       <c r="G100" t="n">
         <v>25</v>
@@ -5172,10 +5148,10 @@
         <v>100</v>
       </c>
       <c r="E101" t="s">
-        <v>201</v>
+        <v>200</v>
       </c>
       <c r="F101" t="s">
-        <v>202</v>
+        <v>183</v>
       </c>
       <c r="G101" t="n">
         <v>2</v>
@@ -5201,10 +5177,10 @@
         <v>101</v>
       </c>
       <c r="E102" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
       <c r="F102" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="G102" t="n">
         <v>2</v>
@@ -5230,10 +5206,10 @@
         <v>102</v>
       </c>
       <c r="E103" t="s">
-        <v>205</v>
+        <v>203</v>
       </c>
       <c r="F103" t="s">
-        <v>206</v>
+        <v>204</v>
       </c>
       <c r="G103" t="n">
         <v>2</v>
@@ -5259,10 +5235,10 @@
         <v>103</v>
       </c>
       <c r="E104" t="s">
-        <v>207</v>
+        <v>205</v>
       </c>
       <c r="F104" t="s">
-        <v>208</v>
+        <v>206</v>
       </c>
       <c r="G104" t="n">
         <v>1</v>
@@ -5288,10 +5264,10 @@
         <v>104</v>
       </c>
       <c r="E105" t="s">
-        <v>209</v>
+        <v>207</v>
       </c>
       <c r="F105" t="s">
-        <v>210</v>
+        <v>128</v>
       </c>
       <c r="G105" t="n">
         <v>5</v>
@@ -5317,10 +5293,10 @@
         <v>105</v>
       </c>
       <c r="E106" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="F106" t="s">
-        <v>212</v>
+        <v>209</v>
       </c>
       <c r="G106" t="n">
         <v>1</v>
@@ -5346,10 +5322,10 @@
         <v>106</v>
       </c>
       <c r="E107" t="s">
-        <v>213</v>
+        <v>210</v>
       </c>
       <c r="F107" t="s">
-        <v>214</v>
+        <v>211</v>
       </c>
       <c r="G107" t="n">
         <v>3</v>
@@ -5375,10 +5351,10 @@
         <v>107</v>
       </c>
       <c r="E108" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
       <c r="F108" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="G108" t="n">
         <v>5</v>
@@ -5404,10 +5380,10 @@
         <v>108</v>
       </c>
       <c r="E109" t="s">
-        <v>217</v>
+        <v>214</v>
       </c>
       <c r="F109" t="s">
-        <v>218</v>
+        <v>215</v>
       </c>
       <c r="G109" t="n">
         <v>1</v>
@@ -5433,10 +5409,10 @@
         <v>109</v>
       </c>
       <c r="E110" t="s">
-        <v>219</v>
+        <v>216</v>
       </c>
       <c r="F110" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
       <c r="G110" t="n">
         <v>1</v>
@@ -5462,10 +5438,10 @@
         <v>110</v>
       </c>
       <c r="E111" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="F111" t="s">
-        <v>222</v>
+        <v>219</v>
       </c>
       <c r="G111" t="n">
         <v>1</v>
@@ -5491,10 +5467,10 @@
         <v>111</v>
       </c>
       <c r="E112" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
       <c r="F112" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="G112" t="n">
         <v>1</v>
@@ -5520,10 +5496,10 @@
         <v>112</v>
       </c>
       <c r="E113" t="s">
-        <v>225</v>
+        <v>222</v>
       </c>
       <c r="F113" t="s">
-        <v>226</v>
+        <v>223</v>
       </c>
       <c r="G113" t="n">
         <v>1</v>
@@ -5549,10 +5525,10 @@
         <v>113</v>
       </c>
       <c r="E114" t="s">
-        <v>227</v>
+        <v>224</v>
       </c>
       <c r="F114" t="s">
-        <v>228</v>
+        <v>225</v>
       </c>
       <c r="G114" t="n">
         <v>1</v>
@@ -5578,10 +5554,10 @@
         <v>114</v>
       </c>
       <c r="E115" t="s">
-        <v>229</v>
+        <v>226</v>
       </c>
       <c r="F115" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
       <c r="G115" t="n">
         <v>2</v>
@@ -5607,10 +5583,10 @@
         <v>115</v>
       </c>
       <c r="E116" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="F116" t="s">
-        <v>232</v>
+        <v>229</v>
       </c>
       <c r="G116" t="n">
         <v>1</v>
@@ -5636,10 +5612,10 @@
         <v>116</v>
       </c>
       <c r="E117" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
       <c r="F117" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="G117" t="n">
         <v>2</v>
@@ -5665,10 +5641,10 @@
         <v>117</v>
       </c>
       <c r="E118" t="s">
-        <v>235</v>
+        <v>232</v>
       </c>
       <c r="F118" t="s">
-        <v>236</v>
+        <v>34</v>
       </c>
       <c r="G118" t="n">
         <v>7</v>
@@ -5694,10 +5670,10 @@
         <v>118</v>
       </c>
       <c r="E119" t="s">
-        <v>237</v>
+        <v>233</v>
       </c>
       <c r="F119" t="s">
-        <v>238</v>
+        <v>234</v>
       </c>
       <c r="G119" t="n">
         <v>1</v>
@@ -5723,10 +5699,10 @@
         <v>119</v>
       </c>
       <c r="E120" t="s">
-        <v>239</v>
+        <v>235</v>
       </c>
       <c r="F120" t="s">
-        <v>240</v>
+        <v>236</v>
       </c>
       <c r="G120" t="n">
         <v>1</v>
@@ -5752,10 +5728,10 @@
         <v>120</v>
       </c>
       <c r="E121" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
       <c r="F121" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="G121" t="n">
         <v>2</v>
@@ -5781,10 +5757,10 @@
         <v>121</v>
       </c>
       <c r="E122" t="s">
-        <v>243</v>
+        <v>239</v>
       </c>
       <c r="F122" t="s">
-        <v>244</v>
+        <v>240</v>
       </c>
       <c r="G122" t="n">
         <v>3</v>
@@ -5810,10 +5786,10 @@
         <v>122</v>
       </c>
       <c r="E123" t="s">
-        <v>245</v>
+        <v>241</v>
       </c>
       <c r="F123" t="s">
-        <v>246</v>
+        <v>242</v>
       </c>
       <c r="G123" t="n">
         <v>11</v>
@@ -5839,10 +5815,10 @@
         <v>123</v>
       </c>
       <c r="E124" t="s">
-        <v>247</v>
+        <v>243</v>
       </c>
       <c r="F124" t="s">
-        <v>248</v>
+        <v>244</v>
       </c>
       <c r="G124" t="n">
         <v>7</v>
@@ -5868,10 +5844,10 @@
         <v>124</v>
       </c>
       <c r="E125" t="s">
-        <v>249</v>
+        <v>245</v>
       </c>
       <c r="F125" t="s">
-        <v>250</v>
+        <v>246</v>
       </c>
       <c r="G125" t="n">
         <v>1</v>
@@ -5897,10 +5873,10 @@
         <v>125</v>
       </c>
       <c r="E126" t="s">
-        <v>251</v>
+        <v>247</v>
       </c>
       <c r="F126" t="s">
-        <v>252</v>
+        <v>248</v>
       </c>
       <c r="G126" t="n">
         <v>1</v>
@@ -5926,10 +5902,10 @@
         <v>126</v>
       </c>
       <c r="E127" t="s">
-        <v>253</v>
+        <v>249</v>
       </c>
       <c r="F127" t="s">
-        <v>254</v>
+        <v>152</v>
       </c>
       <c r="G127" t="n">
         <v>1</v>
@@ -5955,10 +5931,10 @@
         <v>127</v>
       </c>
       <c r="E128" t="s">
-        <v>255</v>
+        <v>250</v>
       </c>
       <c r="F128" t="s">
-        <v>256</v>
+        <v>251</v>
       </c>
       <c r="G128" t="n">
         <v>1</v>
@@ -5984,10 +5960,10 @@
         <v>128</v>
       </c>
       <c r="E129" t="s">
-        <v>257</v>
+        <v>252</v>
       </c>
       <c r="F129" t="s">
-        <v>258</v>
+        <v>253</v>
       </c>
       <c r="G129" t="n">
         <v>19</v>
@@ -6013,10 +5989,10 @@
         <v>129</v>
       </c>
       <c r="E130" t="s">
-        <v>259</v>
+        <v>254</v>
       </c>
       <c r="F130" t="s">
-        <v>260</v>
+        <v>255</v>
       </c>
       <c r="G130" t="n">
         <v>1</v>
@@ -6042,10 +6018,10 @@
         <v>130</v>
       </c>
       <c r="E131" t="s">
-        <v>261</v>
+        <v>256</v>
       </c>
       <c r="F131" t="s">
-        <v>262</v>
+        <v>257</v>
       </c>
       <c r="G131" t="n">
         <v>2</v>
@@ -6071,10 +6047,10 @@
         <v>131</v>
       </c>
       <c r="E132" t="s">
-        <v>263</v>
+        <v>258</v>
       </c>
       <c r="F132" t="s">
-        <v>264</v>
+        <v>259</v>
       </c>
       <c r="G132" t="n">
         <v>5</v>
@@ -6100,10 +6076,10 @@
         <v>132</v>
       </c>
       <c r="E133" t="s">
-        <v>265</v>
+        <v>260</v>
       </c>
       <c r="F133" t="s">
-        <v>266</v>
+        <v>261</v>
       </c>
       <c r="G133" t="n">
         <v>1</v>
@@ -6129,10 +6105,10 @@
         <v>133</v>
       </c>
       <c r="E134" t="s">
-        <v>267</v>
+        <v>262</v>
       </c>
       <c r="F134" t="s">
-        <v>268</v>
+        <v>263</v>
       </c>
       <c r="G134" t="n">
         <v>1</v>
@@ -6158,10 +6134,10 @@
         <v>134</v>
       </c>
       <c r="E135" t="s">
-        <v>269</v>
+        <v>264</v>
       </c>
       <c r="F135" t="s">
-        <v>270</v>
+        <v>138</v>
       </c>
       <c r="G135" t="n">
         <v>1</v>
@@ -6187,10 +6163,10 @@
         <v>135</v>
       </c>
       <c r="E136" t="s">
-        <v>271</v>
+        <v>265</v>
       </c>
       <c r="F136" t="s">
-        <v>272</v>
+        <v>266</v>
       </c>
       <c r="G136" t="n">
         <v>1</v>
@@ -6216,10 +6192,10 @@
         <v>136</v>
       </c>
       <c r="E137" t="s">
-        <v>273</v>
+        <v>267</v>
       </c>
       <c r="F137" t="s">
-        <v>274</v>
+        <v>268</v>
       </c>
       <c r="G137" t="n">
         <v>1</v>
@@ -6245,10 +6221,10 @@
         <v>137</v>
       </c>
       <c r="E138" t="s">
-        <v>275</v>
+        <v>269</v>
       </c>
       <c r="F138" t="s">
-        <v>276</v>
+        <v>270</v>
       </c>
       <c r="G138" t="n">
         <v>1</v>
@@ -6274,10 +6250,10 @@
         <v>138</v>
       </c>
       <c r="E139" t="s">
-        <v>277</v>
+        <v>271</v>
       </c>
       <c r="F139" t="s">
-        <v>278</v>
+        <v>272</v>
       </c>
       <c r="G139" t="n">
         <v>1</v>
@@ -6303,10 +6279,10 @@
         <v>139</v>
       </c>
       <c r="E140" t="s">
-        <v>279</v>
+        <v>273</v>
       </c>
       <c r="F140" t="s">
-        <v>280</v>
+        <v>274</v>
       </c>
       <c r="G140" t="n">
         <v>5</v>
@@ -6332,10 +6308,10 @@
         <v>140</v>
       </c>
       <c r="E141" t="s">
-        <v>281</v>
+        <v>275</v>
       </c>
       <c r="F141" t="s">
-        <v>282</v>
+        <v>276</v>
       </c>
       <c r="G141" t="n">
         <v>1</v>
@@ -6361,10 +6337,10 @@
         <v>141</v>
       </c>
       <c r="E142" t="s">
-        <v>283</v>
+        <v>277</v>
       </c>
       <c r="F142" t="s">
-        <v>284</v>
+        <v>278</v>
       </c>
       <c r="G142" t="n">
         <v>5</v>
@@ -6390,10 +6366,10 @@
         <v>142</v>
       </c>
       <c r="E143" t="s">
-        <v>285</v>
+        <v>279</v>
       </c>
       <c r="F143" t="s">
-        <v>286</v>
+        <v>280</v>
       </c>
       <c r="G143" t="n">
         <v>1</v>
@@ -6419,10 +6395,10 @@
         <v>143</v>
       </c>
       <c r="E144" t="s">
-        <v>287</v>
+        <v>281</v>
       </c>
       <c r="F144" t="s">
-        <v>288</v>
+        <v>282</v>
       </c>
       <c r="G144" t="n">
         <v>1</v>
@@ -6448,10 +6424,10 @@
         <v>144</v>
       </c>
       <c r="E145" t="s">
-        <v>289</v>
+        <v>283</v>
       </c>
       <c r="F145" t="s">
-        <v>290</v>
+        <v>284</v>
       </c>
       <c r="G145" t="n">
         <v>2</v>
@@ -6477,10 +6453,10 @@
         <v>145</v>
       </c>
       <c r="E146" t="s">
-        <v>291</v>
+        <v>285</v>
       </c>
       <c r="F146" t="s">
-        <v>292</v>
+        <v>286</v>
       </c>
       <c r="G146" t="n">
         <v>36</v>
@@ -6506,10 +6482,10 @@
         <v>146</v>
       </c>
       <c r="E147" t="s">
-        <v>293</v>
+        <v>287</v>
       </c>
       <c r="F147" t="s">
-        <v>294</v>
+        <v>288</v>
       </c>
       <c r="G147" t="n">
         <v>1</v>
@@ -6535,10 +6511,10 @@
         <v>147</v>
       </c>
       <c r="E148" t="s">
-        <v>295</v>
+        <v>289</v>
       </c>
       <c r="F148" t="s">
-        <v>296</v>
+        <v>290</v>
       </c>
       <c r="G148" t="n">
         <v>1</v>
@@ -6564,10 +6540,10 @@
         <v>148</v>
       </c>
       <c r="E149" t="s">
-        <v>297</v>
+        <v>291</v>
       </c>
       <c r="F149" t="s">
-        <v>298</v>
+        <v>292</v>
       </c>
       <c r="G149" t="n">
         <v>1</v>
@@ -6593,10 +6569,10 @@
         <v>149</v>
       </c>
       <c r="E150" t="s">
-        <v>299</v>
+        <v>293</v>
       </c>
       <c r="F150" t="s">
-        <v>300</v>
+        <v>294</v>
       </c>
       <c r="G150" t="n">
         <v>2</v>
@@ -6622,10 +6598,10 @@
         <v>150</v>
       </c>
       <c r="E151" t="s">
-        <v>301</v>
+        <v>295</v>
       </c>
       <c r="F151" t="s">
-        <v>302</v>
+        <v>296</v>
       </c>
       <c r="G151" t="n">
         <v>4</v>
@@ -6651,10 +6627,10 @@
         <v>151</v>
       </c>
       <c r="E152" t="s">
-        <v>303</v>
+        <v>297</v>
       </c>
       <c r="F152" t="s">
-        <v>304</v>
+        <v>298</v>
       </c>
       <c r="G152" t="n">
         <v>6</v>
@@ -6680,10 +6656,10 @@
         <v>152</v>
       </c>
       <c r="E153" t="s">
-        <v>305</v>
+        <v>299</v>
       </c>
       <c r="F153" t="s">
-        <v>306</v>
+        <v>300</v>
       </c>
       <c r="G153" t="n">
         <v>5</v>
@@ -6709,10 +6685,10 @@
         <v>153</v>
       </c>
       <c r="E154" t="s">
-        <v>307</v>
+        <v>301</v>
       </c>
       <c r="F154" t="s">
-        <v>308</v>
+        <v>302</v>
       </c>
       <c r="G154" t="n">
         <v>1</v>
@@ -6738,10 +6714,10 @@
         <v>154</v>
       </c>
       <c r="E155" t="s">
-        <v>309</v>
+        <v>303</v>
       </c>
       <c r="F155" t="s">
-        <v>310</v>
+        <v>304</v>
       </c>
       <c r="G155" t="n">
         <v>1</v>
@@ -6767,10 +6743,10 @@
         <v>155</v>
       </c>
       <c r="E156" t="s">
-        <v>311</v>
+        <v>305</v>
       </c>
       <c r="F156" t="s">
-        <v>312</v>
+        <v>306</v>
       </c>
       <c r="G156" t="n">
         <v>1</v>
@@ -6796,10 +6772,10 @@
         <v>156</v>
       </c>
       <c r="E157" t="s">
-        <v>313</v>
+        <v>307</v>
       </c>
       <c r="F157" t="s">
-        <v>314</v>
+        <v>308</v>
       </c>
       <c r="G157" t="n">
         <v>1</v>
@@ -6825,10 +6801,10 @@
         <v>157</v>
       </c>
       <c r="E158" t="s">
-        <v>315</v>
+        <v>309</v>
       </c>
       <c r="F158" t="s">
-        <v>316</v>
+        <v>310</v>
       </c>
       <c r="G158" t="n">
         <v>1</v>
@@ -6854,10 +6830,10 @@
         <v>158</v>
       </c>
       <c r="E159" t="s">
-        <v>317</v>
+        <v>311</v>
       </c>
       <c r="F159" t="s">
-        <v>318</v>
+        <v>312</v>
       </c>
       <c r="G159" t="n">
         <v>1</v>
@@ -6883,10 +6859,10 @@
         <v>159</v>
       </c>
       <c r="E160" t="s">
-        <v>319</v>
+        <v>313</v>
       </c>
       <c r="F160" t="s">
-        <v>320</v>
+        <v>314</v>
       </c>
       <c r="G160" t="n">
         <v>1</v>
@@ -6912,10 +6888,10 @@
         <v>160</v>
       </c>
       <c r="E161" t="s">
-        <v>321</v>
+        <v>315</v>
       </c>
       <c r="F161" t="s">
-        <v>322</v>
+        <v>316</v>
       </c>
       <c r="G161" t="n">
         <v>183</v>
@@ -6941,10 +6917,10 @@
         <v>161</v>
       </c>
       <c r="E162" t="s">
-        <v>323</v>
+        <v>317</v>
       </c>
       <c r="F162" t="s">
-        <v>324</v>
+        <v>318</v>
       </c>
       <c r="G162" t="n">
         <v>5</v>
@@ -6970,10 +6946,10 @@
         <v>162</v>
       </c>
       <c r="E163" t="s">
-        <v>325</v>
+        <v>319</v>
       </c>
       <c r="F163" t="s">
-        <v>326</v>
+        <v>320</v>
       </c>
       <c r="G163" t="n">
         <v>3</v>
@@ -6999,10 +6975,10 @@
         <v>163</v>
       </c>
       <c r="E164" t="s">
-        <v>327</v>
+        <v>321</v>
       </c>
       <c r="F164" t="s">
-        <v>328</v>
+        <v>322</v>
       </c>
       <c r="G164" t="n">
         <v>2</v>
@@ -7028,10 +7004,10 @@
         <v>164</v>
       </c>
       <c r="E165" t="s">
-        <v>329</v>
+        <v>323</v>
       </c>
       <c r="F165" t="s">
-        <v>330</v>
+        <v>324</v>
       </c>
       <c r="G165" t="n">
         <v>2</v>
@@ -7057,10 +7033,10 @@
         <v>165</v>
       </c>
       <c r="E166" t="s">
-        <v>331</v>
+        <v>325</v>
       </c>
       <c r="F166" t="s">
-        <v>332</v>
+        <v>326</v>
       </c>
       <c r="G166" t="n">
         <v>2</v>
@@ -7086,10 +7062,10 @@
         <v>166</v>
       </c>
       <c r="E167" t="s">
-        <v>333</v>
+        <v>327</v>
       </c>
       <c r="F167" t="s">
-        <v>334</v>
+        <v>328</v>
       </c>
       <c r="G167" t="n">
         <v>2</v>
@@ -7115,10 +7091,10 @@
         <v>167</v>
       </c>
       <c r="E168" t="s">
-        <v>335</v>
+        <v>329</v>
       </c>
       <c r="F168" t="s">
-        <v>336</v>
+        <v>330</v>
       </c>
       <c r="G168" t="n">
         <v>1</v>
@@ -7144,10 +7120,10 @@
         <v>168</v>
       </c>
       <c r="E169" t="s">
-        <v>337</v>
+        <v>331</v>
       </c>
       <c r="F169" t="s">
-        <v>338</v>
+        <v>332</v>
       </c>
       <c r="G169" t="n">
         <v>2</v>
@@ -7173,10 +7149,10 @@
         <v>169</v>
       </c>
       <c r="E170" t="s">
-        <v>339</v>
+        <v>333</v>
       </c>
       <c r="F170" t="s">
-        <v>340</v>
+        <v>334</v>
       </c>
       <c r="G170" t="n">
         <v>2</v>
@@ -7202,10 +7178,10 @@
         <v>170</v>
       </c>
       <c r="E171" t="s">
-        <v>341</v>
+        <v>335</v>
       </c>
       <c r="F171" t="s">
-        <v>342</v>
+        <v>336</v>
       </c>
       <c r="G171" t="n">
         <v>1</v>
@@ -7231,10 +7207,10 @@
         <v>171</v>
       </c>
       <c r="E172" t="s">
-        <v>343</v>
+        <v>337</v>
       </c>
       <c r="F172" t="s">
-        <v>344</v>
+        <v>338</v>
       </c>
       <c r="G172" t="n">
         <v>2</v>
@@ -7260,10 +7236,10 @@
         <v>172</v>
       </c>
       <c r="E173" t="s">
-        <v>345</v>
+        <v>339</v>
       </c>
       <c r="F173" t="s">
-        <v>346</v>
+        <v>340</v>
       </c>
       <c r="G173" t="n">
         <v>1</v>
@@ -7289,10 +7265,10 @@
         <v>173</v>
       </c>
       <c r="E174" t="s">
-        <v>347</v>
+        <v>341</v>
       </c>
       <c r="F174" t="s">
-        <v>348</v>
+        <v>342</v>
       </c>
       <c r="G174" t="n">
         <v>1</v>
@@ -7318,10 +7294,10 @@
         <v>174</v>
       </c>
       <c r="E175" t="s">
-        <v>349</v>
+        <v>343</v>
       </c>
       <c r="F175" t="s">
-        <v>350</v>
+        <v>344</v>
       </c>
       <c r="G175" t="n">
         <v>1</v>
@@ -7347,10 +7323,10 @@
         <v>175</v>
       </c>
       <c r="E176" t="s">
-        <v>351</v>
+        <v>345</v>
       </c>
       <c r="F176" t="s">
-        <v>352</v>
+        <v>346</v>
       </c>
       <c r="G176" t="n">
         <v>2</v>
@@ -7376,10 +7352,10 @@
         <v>176</v>
       </c>
       <c r="E177" t="s">
-        <v>353</v>
+        <v>347</v>
       </c>
       <c r="F177" t="s">
-        <v>354</v>
+        <v>348</v>
       </c>
       <c r="G177" t="n">
         <v>1</v>
@@ -7405,10 +7381,10 @@
         <v>177</v>
       </c>
       <c r="E178" t="s">
-        <v>355</v>
+        <v>349</v>
       </c>
       <c r="F178" t="s">
-        <v>356</v>
+        <v>350</v>
       </c>
       <c r="G178" t="n">
         <v>1</v>
@@ -7434,10 +7410,10 @@
         <v>178</v>
       </c>
       <c r="E179" t="s">
-        <v>357</v>
+        <v>351</v>
       </c>
       <c r="F179" t="s">
-        <v>358</v>
+        <v>352</v>
       </c>
       <c r="G179" t="n">
         <v>1</v>
@@ -7463,10 +7439,10 @@
         <v>179</v>
       </c>
       <c r="E180" t="s">
-        <v>359</v>
+        <v>353</v>
       </c>
       <c r="F180" t="s">
-        <v>360</v>
+        <v>354</v>
       </c>
       <c r="G180" t="n">
         <v>1</v>
@@ -7492,10 +7468,10 @@
         <v>180</v>
       </c>
       <c r="E181" t="s">
-        <v>361</v>
+        <v>355</v>
       </c>
       <c r="F181" t="s">
-        <v>362</v>
+        <v>356</v>
       </c>
       <c r="G181" t="n">
         <v>1</v>
@@ -7521,10 +7497,10 @@
         <v>181</v>
       </c>
       <c r="E182" t="s">
-        <v>363</v>
+        <v>357</v>
       </c>
       <c r="F182" t="s">
-        <v>364</v>
+        <v>358</v>
       </c>
       <c r="G182" t="n">
         <v>1</v>
@@ -7550,13 +7526,13 @@
         <v>182</v>
       </c>
       <c r="E183" t="s">
-        <v>365</v>
+        <v>359</v>
       </c>
       <c r="F183" t="s">
-        <v>366</v>
+        <v>360</v>
       </c>
       <c r="G183" t="n">
-        <v>43</v>
+        <v>5</v>
       </c>
       <c r="H183" t="s">
         <v>4</v>
@@ -7579,13 +7555,13 @@
         <v>183</v>
       </c>
       <c r="E184" t="s">
-        <v>367</v>
+        <v>361</v>
       </c>
       <c r="F184" t="s">
-        <v>368</v>
+        <v>362</v>
       </c>
       <c r="G184" t="n">
-        <v>5</v>
+        <v>2</v>
       </c>
       <c r="H184" t="s">
         <v>4</v>
@@ -7608,13 +7584,13 @@
         <v>184</v>
       </c>
       <c r="E185" t="s">
-        <v>369</v>
+        <v>363</v>
       </c>
       <c r="F185" t="s">
-        <v>370</v>
+        <v>364</v>
       </c>
       <c r="G185" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H185" t="s">
         <v>4</v>
@@ -7637,10 +7613,10 @@
         <v>185</v>
       </c>
       <c r="E186" t="s">
-        <v>371</v>
+        <v>365</v>
       </c>
       <c r="F186" t="s">
-        <v>372</v>
+        <v>366</v>
       </c>
       <c r="G186" t="n">
         <v>1</v>
@@ -7666,13 +7642,13 @@
         <v>186</v>
       </c>
       <c r="E187" t="s">
-        <v>373</v>
+        <v>367</v>
       </c>
       <c r="F187" t="s">
-        <v>374</v>
+        <v>368</v>
       </c>
       <c r="G187" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H187" t="s">
         <v>4</v>
@@ -7695,13 +7671,13 @@
         <v>187</v>
       </c>
       <c r="E188" t="s">
-        <v>375</v>
+        <v>369</v>
       </c>
       <c r="F188" t="s">
-        <v>376</v>
+        <v>370</v>
       </c>
       <c r="G188" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H188" t="s">
         <v>4</v>
@@ -7724,13 +7700,13 @@
         <v>188</v>
       </c>
       <c r="E189" t="s">
-        <v>377</v>
+        <v>371</v>
       </c>
       <c r="F189" t="s">
-        <v>378</v>
+        <v>372</v>
       </c>
       <c r="G189" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H189" t="s">
         <v>4</v>
@@ -7753,13 +7729,13 @@
         <v>189</v>
       </c>
       <c r="E190" t="s">
-        <v>379</v>
+        <v>29</v>
       </c>
       <c r="F190" t="s">
-        <v>380</v>
+        <v>30</v>
       </c>
       <c r="G190" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H190" t="s">
         <v>4</v>
@@ -7782,13 +7758,13 @@
         <v>190</v>
       </c>
       <c r="E191" t="s">
-        <v>29</v>
+        <v>373</v>
       </c>
       <c r="F191" t="s">
-        <v>30</v>
+        <v>374</v>
       </c>
       <c r="G191" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H191" t="s">
         <v>4</v>
@@ -7811,10 +7787,10 @@
         <v>191</v>
       </c>
       <c r="E192" t="s">
-        <v>381</v>
+        <v>375</v>
       </c>
       <c r="F192" t="s">
-        <v>382</v>
+        <v>376</v>
       </c>
       <c r="G192" t="n">
         <v>1</v>
@@ -7840,13 +7816,13 @@
         <v>192</v>
       </c>
       <c r="E193" t="s">
-        <v>383</v>
+        <v>377</v>
       </c>
       <c r="F193" t="s">
-        <v>384</v>
+        <v>378</v>
       </c>
       <c r="G193" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H193" t="s">
         <v>4</v>
@@ -7869,10 +7845,10 @@
         <v>193</v>
       </c>
       <c r="E194" t="s">
-        <v>385</v>
+        <v>379</v>
       </c>
       <c r="F194" t="s">
-        <v>386</v>
+        <v>380</v>
       </c>
       <c r="G194" t="n">
         <v>2</v>
@@ -7898,13 +7874,13 @@
         <v>194</v>
       </c>
       <c r="E195" t="s">
-        <v>387</v>
+        <v>381</v>
       </c>
       <c r="F195" t="s">
-        <v>388</v>
+        <v>382</v>
       </c>
       <c r="G195" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H195" t="s">
         <v>4</v>
@@ -7927,10 +7903,10 @@
         <v>195</v>
       </c>
       <c r="E196" t="s">
-        <v>389</v>
+        <v>383</v>
       </c>
       <c r="F196" t="s">
-        <v>390</v>
+        <v>384</v>
       </c>
       <c r="G196" t="n">
         <v>1</v>
@@ -7956,10 +7932,10 @@
         <v>196</v>
       </c>
       <c r="E197" t="s">
-        <v>391</v>
+        <v>385</v>
       </c>
       <c r="F197" t="s">
-        <v>392</v>
+        <v>386</v>
       </c>
       <c r="G197" t="n">
         <v>1</v>
@@ -7985,10 +7961,10 @@
         <v>197</v>
       </c>
       <c r="E198" t="s">
-        <v>393</v>
+        <v>387</v>
       </c>
       <c r="F198" t="s">
-        <v>394</v>
+        <v>388</v>
       </c>
       <c r="G198" t="n">
         <v>1</v>
@@ -8014,10 +7990,10 @@
         <v>198</v>
       </c>
       <c r="E199" t="s">
-        <v>395</v>
+        <v>389</v>
       </c>
       <c r="F199" t="s">
-        <v>396</v>
+        <v>390</v>
       </c>
       <c r="G199" t="n">
         <v>1</v>
@@ -8043,13 +8019,13 @@
         <v>199</v>
       </c>
       <c r="E200" t="s">
-        <v>397</v>
+        <v>391</v>
       </c>
       <c r="F200" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="G200" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H200" t="s">
         <v>4</v>
@@ -8072,13 +8048,13 @@
         <v>200</v>
       </c>
       <c r="E201" t="s">
-        <v>399</v>
+        <v>393</v>
       </c>
       <c r="F201" t="s">
-        <v>400</v>
+        <v>394</v>
       </c>
       <c r="G201" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H201" t="s">
         <v>4</v>
@@ -8101,10 +8077,10 @@
         <v>201</v>
       </c>
       <c r="E202" t="s">
-        <v>401</v>
+        <v>395</v>
       </c>
       <c r="F202" t="s">
-        <v>402</v>
+        <v>396</v>
       </c>
       <c r="G202" t="n">
         <v>1</v>
@@ -8130,10 +8106,10 @@
         <v>202</v>
       </c>
       <c r="E203" t="s">
-        <v>403</v>
+        <v>397</v>
       </c>
       <c r="F203" t="s">
-        <v>404</v>
+        <v>398</v>
       </c>
       <c r="G203" t="n">
         <v>1</v>
@@ -8159,10 +8135,10 @@
         <v>203</v>
       </c>
       <c r="E204" t="s">
-        <v>405</v>
+        <v>399</v>
       </c>
       <c r="F204" t="s">
-        <v>406</v>
+        <v>400</v>
       </c>
       <c r="G204" t="n">
         <v>1</v>
@@ -8188,10 +8164,10 @@
         <v>204</v>
       </c>
       <c r="E205" t="s">
-        <v>407</v>
+        <v>401</v>
       </c>
       <c r="F205" t="s">
-        <v>408</v>
+        <v>402</v>
       </c>
       <c r="G205" t="n">
         <v>1</v>
@@ -8217,10 +8193,10 @@
         <v>205</v>
       </c>
       <c r="E206" t="s">
-        <v>409</v>
+        <v>403</v>
       </c>
       <c r="F206" t="s">
-        <v>410</v>
+        <v>404</v>
       </c>
       <c r="G206" t="n">
         <v>1</v>
@@ -8246,10 +8222,10 @@
         <v>206</v>
       </c>
       <c r="E207" t="s">
-        <v>411</v>
+        <v>405</v>
       </c>
       <c r="F207" t="s">
-        <v>412</v>
+        <v>406</v>
       </c>
       <c r="G207" t="n">
         <v>1</v>
@@ -8275,10 +8251,10 @@
         <v>207</v>
       </c>
       <c r="E208" t="s">
-        <v>413</v>
+        <v>407</v>
       </c>
       <c r="F208" t="s">
-        <v>414</v>
+        <v>408</v>
       </c>
       <c r="G208" t="n">
         <v>1</v>
@@ -8304,10 +8280,10 @@
         <v>208</v>
       </c>
       <c r="E209" t="s">
-        <v>415</v>
+        <v>409</v>
       </c>
       <c r="F209" t="s">
-        <v>416</v>
+        <v>410</v>
       </c>
       <c r="G209" t="n">
         <v>1</v>
@@ -8333,13 +8309,13 @@
         <v>209</v>
       </c>
       <c r="E210" t="s">
-        <v>417</v>
+        <v>411</v>
       </c>
       <c r="F210" t="s">
-        <v>418</v>
+        <v>412</v>
       </c>
       <c r="G210" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H210" t="s">
         <v>4</v>
@@ -8362,13 +8338,13 @@
         <v>210</v>
       </c>
       <c r="E211" t="s">
-        <v>419</v>
+        <v>21</v>
       </c>
       <c r="F211" t="s">
-        <v>420</v>
+        <v>22</v>
       </c>
       <c r="G211" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H211" t="s">
         <v>4</v>
@@ -8391,13 +8367,13 @@
         <v>211</v>
       </c>
       <c r="E212" t="s">
-        <v>21</v>
+        <v>413</v>
       </c>
       <c r="F212" t="s">
-        <v>22</v>
+        <v>414</v>
       </c>
       <c r="G212" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H212" t="s">
         <v>4</v>
@@ -8420,13 +8396,13 @@
         <v>212</v>
       </c>
       <c r="E213" t="s">
-        <v>421</v>
+        <v>415</v>
       </c>
       <c r="F213" t="s">
-        <v>422</v>
+        <v>416</v>
       </c>
       <c r="G213" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H213" t="s">
         <v>4</v>
@@ -8449,10 +8425,10 @@
         <v>213</v>
       </c>
       <c r="E214" t="s">
-        <v>423</v>
+        <v>417</v>
       </c>
       <c r="F214" t="s">
-        <v>424</v>
+        <v>418</v>
       </c>
       <c r="G214" t="n">
         <v>1</v>
@@ -8478,10 +8454,10 @@
         <v>214</v>
       </c>
       <c r="E215" t="s">
-        <v>425</v>
+        <v>419</v>
       </c>
       <c r="F215" t="s">
-        <v>426</v>
+        <v>420</v>
       </c>
       <c r="G215" t="n">
         <v>1</v>
@@ -8507,10 +8483,10 @@
         <v>215</v>
       </c>
       <c r="E216" t="s">
-        <v>427</v>
+        <v>421</v>
       </c>
       <c r="F216" t="s">
-        <v>428</v>
+        <v>422</v>
       </c>
       <c r="G216" t="n">
         <v>1</v>
@@ -8536,13 +8512,13 @@
         <v>216</v>
       </c>
       <c r="E217" t="s">
-        <v>429</v>
+        <v>423</v>
       </c>
       <c r="F217" t="s">
-        <v>430</v>
+        <v>424</v>
       </c>
       <c r="G217" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H217" t="s">
         <v>4</v>
@@ -8565,13 +8541,13 @@
         <v>217</v>
       </c>
       <c r="E218" t="s">
-        <v>431</v>
+        <v>425</v>
       </c>
       <c r="F218" t="s">
-        <v>432</v>
+        <v>426</v>
       </c>
       <c r="G218" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H218" t="s">
         <v>4</v>
@@ -8594,10 +8570,10 @@
         <v>218</v>
       </c>
       <c r="E219" t="s">
-        <v>433</v>
+        <v>427</v>
       </c>
       <c r="F219" t="s">
-        <v>434</v>
+        <v>428</v>
       </c>
       <c r="G219" t="n">
         <v>1</v>
@@ -8623,13 +8599,13 @@
         <v>219</v>
       </c>
       <c r="E220" t="s">
-        <v>435</v>
+        <v>429</v>
       </c>
       <c r="F220" t="s">
-        <v>436</v>
+        <v>430</v>
       </c>
       <c r="G220" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H220" t="s">
         <v>4</v>
@@ -8652,13 +8628,13 @@
         <v>220</v>
       </c>
       <c r="E221" t="s">
-        <v>437</v>
+        <v>431</v>
       </c>
       <c r="F221" t="s">
-        <v>438</v>
+        <v>432</v>
       </c>
       <c r="G221" t="n">
-        <v>4</v>
+        <v>1</v>
       </c>
       <c r="H221" t="s">
         <v>4</v>
@@ -8681,10 +8657,10 @@
         <v>221</v>
       </c>
       <c r="E222" t="s">
-        <v>439</v>
+        <v>433</v>
       </c>
       <c r="F222" t="s">
-        <v>440</v>
+        <v>434</v>
       </c>
       <c r="G222" t="n">
         <v>1</v>
@@ -8710,10 +8686,10 @@
         <v>222</v>
       </c>
       <c r="E223" t="s">
-        <v>441</v>
+        <v>435</v>
       </c>
       <c r="F223" t="s">
-        <v>442</v>
+        <v>436</v>
       </c>
       <c r="G223" t="n">
         <v>1</v>
@@ -8739,10 +8715,10 @@
         <v>223</v>
       </c>
       <c r="E224" t="s">
-        <v>443</v>
+        <v>437</v>
       </c>
       <c r="F224" t="s">
-        <v>444</v>
+        <v>438</v>
       </c>
       <c r="G224" t="n">
         <v>1</v>
@@ -8768,10 +8744,10 @@
         <v>224</v>
       </c>
       <c r="E225" t="s">
-        <v>445</v>
+        <v>439</v>
       </c>
       <c r="F225" t="s">
-        <v>446</v>
+        <v>440</v>
       </c>
       <c r="G225" t="n">
         <v>1</v>
@@ -8797,10 +8773,10 @@
         <v>225</v>
       </c>
       <c r="E226" t="s">
-        <v>447</v>
+        <v>441</v>
       </c>
       <c r="F226" t="s">
-        <v>448</v>
+        <v>442</v>
       </c>
       <c r="G226" t="n">
         <v>1</v>
@@ -8826,10 +8802,10 @@
         <v>226</v>
       </c>
       <c r="E227" t="s">
-        <v>449</v>
+        <v>443</v>
       </c>
       <c r="F227" t="s">
-        <v>450</v>
+        <v>444</v>
       </c>
       <c r="G227" t="n">
         <v>1</v>
@@ -8855,13 +8831,13 @@
         <v>227</v>
       </c>
       <c r="E228" t="s">
-        <v>451</v>
+        <v>445</v>
       </c>
       <c r="F228" t="s">
-        <v>452</v>
+        <v>446</v>
       </c>
       <c r="G228" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H228" t="s">
         <v>4</v>
@@ -8884,13 +8860,13 @@
         <v>228</v>
       </c>
       <c r="E229" t="s">
-        <v>453</v>
+        <v>447</v>
       </c>
       <c r="F229" t="s">
-        <v>454</v>
+        <v>448</v>
       </c>
       <c r="G229" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H229" t="s">
         <v>4</v>
@@ -8913,10 +8889,10 @@
         <v>229</v>
       </c>
       <c r="E230" t="s">
-        <v>455</v>
+        <v>449</v>
       </c>
       <c r="F230" t="s">
-        <v>456</v>
+        <v>450</v>
       </c>
       <c r="G230" t="n">
         <v>1</v>
@@ -8942,10 +8918,10 @@
         <v>230</v>
       </c>
       <c r="E231" t="s">
-        <v>457</v>
+        <v>451</v>
       </c>
       <c r="F231" t="s">
-        <v>458</v>
+        <v>452</v>
       </c>
       <c r="G231" t="n">
         <v>1</v>
@@ -8971,10 +8947,10 @@
         <v>231</v>
       </c>
       <c r="E232" t="s">
-        <v>459</v>
+        <v>453</v>
       </c>
       <c r="F232" t="s">
-        <v>460</v>
+        <v>454</v>
       </c>
       <c r="G232" t="n">
         <v>1</v>
@@ -9000,10 +8976,10 @@
         <v>232</v>
       </c>
       <c r="E233" t="s">
-        <v>461</v>
+        <v>455</v>
       </c>
       <c r="F233" t="s">
-        <v>462</v>
+        <v>456</v>
       </c>
       <c r="G233" t="n">
         <v>1</v>
@@ -9029,10 +9005,10 @@
         <v>233</v>
       </c>
       <c r="E234" t="s">
-        <v>463</v>
+        <v>457</v>
       </c>
       <c r="F234" t="s">
-        <v>464</v>
+        <v>458</v>
       </c>
       <c r="G234" t="n">
         <v>1</v>
@@ -9058,10 +9034,10 @@
         <v>234</v>
       </c>
       <c r="E235" t="s">
-        <v>465</v>
+        <v>459</v>
       </c>
       <c r="F235" t="s">
-        <v>466</v>
+        <v>460</v>
       </c>
       <c r="G235" t="n">
         <v>1</v>
@@ -9087,10 +9063,10 @@
         <v>235</v>
       </c>
       <c r="E236" t="s">
-        <v>467</v>
+        <v>461</v>
       </c>
       <c r="F236" t="s">
-        <v>468</v>
+        <v>462</v>
       </c>
       <c r="G236" t="n">
         <v>1</v>
@@ -9116,10 +9092,10 @@
         <v>236</v>
       </c>
       <c r="E237" t="s">
-        <v>469</v>
+        <v>463</v>
       </c>
       <c r="F237" t="s">
-        <v>470</v>
+        <v>464</v>
       </c>
       <c r="G237" t="n">
         <v>1</v>
@@ -9145,10 +9121,10 @@
         <v>237</v>
       </c>
       <c r="E238" t="s">
-        <v>471</v>
+        <v>465</v>
       </c>
       <c r="F238" t="s">
-        <v>472</v>
+        <v>466</v>
       </c>
       <c r="G238" t="n">
         <v>1</v>
@@ -9174,10 +9150,10 @@
         <v>238</v>
       </c>
       <c r="E239" t="s">
-        <v>473</v>
+        <v>467</v>
       </c>
       <c r="F239" t="s">
-        <v>474</v>
+        <v>468</v>
       </c>
       <c r="G239" t="n">
         <v>1</v>
@@ -9203,10 +9179,10 @@
         <v>239</v>
       </c>
       <c r="E240" t="s">
-        <v>475</v>
+        <v>469</v>
       </c>
       <c r="F240" t="s">
-        <v>476</v>
+        <v>470</v>
       </c>
       <c r="G240" t="n">
         <v>1</v>
@@ -9232,10 +9208,10 @@
         <v>240</v>
       </c>
       <c r="E241" t="s">
-        <v>477</v>
+        <v>471</v>
       </c>
       <c r="F241" t="s">
-        <v>478</v>
+        <v>472</v>
       </c>
       <c r="G241" t="n">
         <v>1</v>
@@ -9261,10 +9237,10 @@
         <v>241</v>
       </c>
       <c r="E242" t="s">
-        <v>479</v>
+        <v>473</v>
       </c>
       <c r="F242" t="s">
-        <v>480</v>
+        <v>474</v>
       </c>
       <c r="G242" t="n">
         <v>1</v>
@@ -9290,10 +9266,10 @@
         <v>242</v>
       </c>
       <c r="E243" t="s">
-        <v>481</v>
+        <v>475</v>
       </c>
       <c r="F243" t="s">
-        <v>482</v>
+        <v>476</v>
       </c>
       <c r="G243" t="n">
         <v>1</v>
@@ -9319,10 +9295,10 @@
         <v>243</v>
       </c>
       <c r="E244" t="s">
-        <v>483</v>
+        <v>477</v>
       </c>
       <c r="F244" t="s">
-        <v>484</v>
+        <v>478</v>
       </c>
       <c r="G244" t="n">
         <v>1</v>
@@ -9348,10 +9324,10 @@
         <v>244</v>
       </c>
       <c r="E245" t="s">
-        <v>485</v>
+        <v>479</v>
       </c>
       <c r="F245" t="s">
-        <v>486</v>
+        <v>480</v>
       </c>
       <c r="G245" t="n">
         <v>1</v>
@@ -9377,10 +9353,10 @@
         <v>245</v>
       </c>
       <c r="E246" t="s">
-        <v>487</v>
+        <v>481</v>
       </c>
       <c r="F246" t="s">
-        <v>488</v>
+        <v>482</v>
       </c>
       <c r="G246" t="n">
         <v>1</v>
@@ -9406,10 +9382,10 @@
         <v>246</v>
       </c>
       <c r="E247" t="s">
-        <v>489</v>
+        <v>483</v>
       </c>
       <c r="F247" t="s">
-        <v>490</v>
+        <v>484</v>
       </c>
       <c r="G247" t="n">
         <v>1</v>
@@ -9435,10 +9411,10 @@
         <v>247</v>
       </c>
       <c r="E248" t="s">
-        <v>491</v>
+        <v>485</v>
       </c>
       <c r="F248" t="s">
-        <v>492</v>
+        <v>486</v>
       </c>
       <c r="G248" t="n">
         <v>1</v>
@@ -9464,13 +9440,13 @@
         <v>248</v>
       </c>
       <c r="E249" t="s">
-        <v>493</v>
+        <v>487</v>
       </c>
       <c r="F249" t="s">
-        <v>494</v>
+        <v>488</v>
       </c>
       <c r="G249" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H249" t="s">
         <v>4</v>
@@ -9493,10 +9469,10 @@
         <v>249</v>
       </c>
       <c r="E250" t="s">
-        <v>495</v>
+        <v>489</v>
       </c>
       <c r="F250" t="s">
-        <v>496</v>
+        <v>490</v>
       </c>
       <c r="G250" t="n">
         <v>2</v>
@@ -9522,13 +9498,13 @@
         <v>250</v>
       </c>
       <c r="E251" t="s">
-        <v>497</v>
+        <v>491</v>
       </c>
       <c r="F251" t="s">
-        <v>498</v>
+        <v>492</v>
       </c>
       <c r="G251" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H251" t="s">
         <v>4</v>
@@ -9551,10 +9527,10 @@
         <v>251</v>
       </c>
       <c r="E252" t="s">
-        <v>499</v>
+        <v>493</v>
       </c>
       <c r="F252" t="s">
-        <v>500</v>
+        <v>494</v>
       </c>
       <c r="G252" t="n">
         <v>1</v>
@@ -9580,10 +9556,10 @@
         <v>252</v>
       </c>
       <c r="E253" t="s">
-        <v>501</v>
+        <v>495</v>
       </c>
       <c r="F253" t="s">
-        <v>502</v>
+        <v>496</v>
       </c>
       <c r="G253" t="n">
         <v>1</v>
@@ -9609,13 +9585,13 @@
         <v>253</v>
       </c>
       <c r="E254" t="s">
-        <v>503</v>
+        <v>497</v>
       </c>
       <c r="F254" t="s">
-        <v>504</v>
+        <v>498</v>
       </c>
       <c r="G254" t="n">
-        <v>1</v>
+        <v>4</v>
       </c>
       <c r="H254" t="s">
         <v>4</v>
@@ -9638,13 +9614,13 @@
         <v>254</v>
       </c>
       <c r="E255" t="s">
-        <v>505</v>
+        <v>499</v>
       </c>
       <c r="F255" t="s">
-        <v>506</v>
+        <v>500</v>
       </c>
       <c r="G255" t="n">
-        <v>4</v>
+        <v>2</v>
       </c>
       <c r="H255" t="s">
         <v>4</v>
@@ -9667,13 +9643,13 @@
         <v>255</v>
       </c>
       <c r="E256" t="s">
-        <v>507</v>
+        <v>501</v>
       </c>
       <c r="F256" t="s">
-        <v>508</v>
+        <v>502</v>
       </c>
       <c r="G256" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H256" t="s">
         <v>4</v>
@@ -9696,10 +9672,10 @@
         <v>256</v>
       </c>
       <c r="E257" t="s">
-        <v>509</v>
+        <v>503</v>
       </c>
       <c r="F257" t="s">
-        <v>510</v>
+        <v>504</v>
       </c>
       <c r="G257" t="n">
         <v>1</v>
@@ -9725,10 +9701,10 @@
         <v>257</v>
       </c>
       <c r="E258" t="s">
-        <v>511</v>
+        <v>505</v>
       </c>
       <c r="F258" t="s">
-        <v>512</v>
+        <v>506</v>
       </c>
       <c r="G258" t="n">
         <v>1</v>
@@ -9754,10 +9730,10 @@
         <v>258</v>
       </c>
       <c r="E259" t="s">
-        <v>513</v>
+        <v>507</v>
       </c>
       <c r="F259" t="s">
-        <v>514</v>
+        <v>508</v>
       </c>
       <c r="G259" t="n">
         <v>1</v>
@@ -9783,10 +9759,10 @@
         <v>259</v>
       </c>
       <c r="E260" t="s">
-        <v>515</v>
+        <v>509</v>
       </c>
       <c r="F260" t="s">
-        <v>516</v>
+        <v>510</v>
       </c>
       <c r="G260" t="n">
         <v>1</v>
@@ -9812,10 +9788,10 @@
         <v>260</v>
       </c>
       <c r="E261" t="s">
-        <v>517</v>
+        <v>511</v>
       </c>
       <c r="F261" t="s">
-        <v>518</v>
+        <v>512</v>
       </c>
       <c r="G261" t="n">
         <v>1</v>
@@ -9841,10 +9817,10 @@
         <v>261</v>
       </c>
       <c r="E262" t="s">
-        <v>519</v>
+        <v>513</v>
       </c>
       <c r="F262" t="s">
-        <v>520</v>
+        <v>514</v>
       </c>
       <c r="G262" t="n">
         <v>1</v>
@@ -9870,10 +9846,10 @@
         <v>262</v>
       </c>
       <c r="E263" t="s">
-        <v>521</v>
+        <v>515</v>
       </c>
       <c r="F263" t="s">
-        <v>522</v>
+        <v>516</v>
       </c>
       <c r="G263" t="n">
         <v>1</v>
@@ -9899,13 +9875,13 @@
         <v>263</v>
       </c>
       <c r="E264" t="s">
-        <v>523</v>
+        <v>517</v>
       </c>
       <c r="F264" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="G264" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H264" t="s">
         <v>4</v>
@@ -9928,13 +9904,13 @@
         <v>264</v>
       </c>
       <c r="E265" t="s">
-        <v>525</v>
+        <v>519</v>
       </c>
       <c r="F265" t="s">
-        <v>526</v>
+        <v>520</v>
       </c>
       <c r="G265" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H265" t="s">
         <v>4</v>
@@ -9957,13 +9933,13 @@
         <v>265</v>
       </c>
       <c r="E266" t="s">
-        <v>527</v>
+        <v>521</v>
       </c>
       <c r="F266" t="s">
-        <v>528</v>
+        <v>522</v>
       </c>
       <c r="G266" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H266" t="s">
         <v>4</v>
@@ -9986,13 +9962,13 @@
         <v>266</v>
       </c>
       <c r="E267" t="s">
-        <v>529</v>
+        <v>523</v>
       </c>
       <c r="F267" t="s">
-        <v>530</v>
+        <v>524</v>
       </c>
       <c r="G267" t="n">
-        <v>2</v>
+        <v>13</v>
       </c>
       <c r="H267" t="s">
         <v>4</v>
@@ -10015,13 +9991,13 @@
         <v>267</v>
       </c>
       <c r="E268" t="s">
-        <v>531</v>
+        <v>525</v>
       </c>
       <c r="F268" t="s">
-        <v>532</v>
+        <v>526</v>
       </c>
       <c r="G268" t="n">
-        <v>13</v>
+        <v>2</v>
       </c>
       <c r="H268" t="s">
         <v>4</v>
@@ -10044,10 +10020,10 @@
         <v>268</v>
       </c>
       <c r="E269" t="s">
-        <v>533</v>
+        <v>527</v>
       </c>
       <c r="F269" t="s">
-        <v>534</v>
+        <v>528</v>
       </c>
       <c r="G269" t="n">
         <v>2</v>
@@ -10073,10 +10049,10 @@
         <v>269</v>
       </c>
       <c r="E270" t="s">
-        <v>535</v>
+        <v>529</v>
       </c>
       <c r="F270" t="s">
-        <v>536</v>
+        <v>530</v>
       </c>
       <c r="G270" t="n">
         <v>2</v>
@@ -10102,10 +10078,10 @@
         <v>270</v>
       </c>
       <c r="E271" t="s">
-        <v>537</v>
+        <v>531</v>
       </c>
       <c r="F271" t="s">
-        <v>538</v>
+        <v>532</v>
       </c>
       <c r="G271" t="n">
         <v>2</v>
@@ -10131,10 +10107,10 @@
         <v>271</v>
       </c>
       <c r="E272" t="s">
-        <v>539</v>
+        <v>533</v>
       </c>
       <c r="F272" t="s">
-        <v>540</v>
+        <v>534</v>
       </c>
       <c r="G272" t="n">
         <v>2</v>
@@ -10160,13 +10136,13 @@
         <v>272</v>
       </c>
       <c r="E273" t="s">
-        <v>541</v>
+        <v>535</v>
       </c>
       <c r="F273" t="s">
-        <v>542</v>
+        <v>536</v>
       </c>
       <c r="G273" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H273" t="s">
         <v>4</v>
@@ -10189,10 +10165,10 @@
         <v>273</v>
       </c>
       <c r="E274" t="s">
-        <v>543</v>
+        <v>537</v>
       </c>
       <c r="F274" t="s">
-        <v>544</v>
+        <v>538</v>
       </c>
       <c r="G274" t="n">
         <v>1</v>
@@ -10218,13 +10194,13 @@
         <v>274</v>
       </c>
       <c r="E275" t="s">
-        <v>545</v>
+        <v>539</v>
       </c>
       <c r="F275" t="s">
-        <v>546</v>
+        <v>540</v>
       </c>
       <c r="G275" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H275" t="s">
         <v>4</v>
@@ -10247,13 +10223,13 @@
         <v>275</v>
       </c>
       <c r="E276" t="s">
-        <v>547</v>
+        <v>541</v>
       </c>
       <c r="F276" t="s">
-        <v>548</v>
+        <v>542</v>
       </c>
       <c r="G276" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H276" t="s">
         <v>4</v>
@@ -10276,10 +10252,10 @@
         <v>276</v>
       </c>
       <c r="E277" t="s">
-        <v>549</v>
+        <v>543</v>
       </c>
       <c r="F277" t="s">
-        <v>550</v>
+        <v>544</v>
       </c>
       <c r="G277" t="n">
         <v>1</v>
@@ -10305,10 +10281,10 @@
         <v>277</v>
       </c>
       <c r="E278" t="s">
-        <v>551</v>
+        <v>545</v>
       </c>
       <c r="F278" t="s">
-        <v>552</v>
+        <v>546</v>
       </c>
       <c r="G278" t="n">
         <v>1</v>
@@ -10334,10 +10310,10 @@
         <v>278</v>
       </c>
       <c r="E279" t="s">
-        <v>553</v>
+        <v>547</v>
       </c>
       <c r="F279" t="s">
-        <v>554</v>
+        <v>548</v>
       </c>
       <c r="G279" t="n">
         <v>1</v>
@@ -10363,13 +10339,13 @@
         <v>279</v>
       </c>
       <c r="E280" t="s">
-        <v>555</v>
+        <v>549</v>
       </c>
       <c r="F280" t="s">
-        <v>556</v>
+        <v>550</v>
       </c>
       <c r="G280" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H280" t="s">
         <v>4</v>
@@ -10392,13 +10368,13 @@
         <v>280</v>
       </c>
       <c r="E281" t="s">
-        <v>557</v>
+        <v>551</v>
       </c>
       <c r="F281" t="s">
-        <v>558</v>
+        <v>552</v>
       </c>
       <c r="G281" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H281" t="s">
         <v>4</v>
@@ -10421,13 +10397,13 @@
         <v>281</v>
       </c>
       <c r="E282" t="s">
-        <v>559</v>
+        <v>553</v>
       </c>
       <c r="F282" t="s">
-        <v>560</v>
+        <v>554</v>
       </c>
       <c r="G282" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H282" t="s">
         <v>4</v>
@@ -10450,10 +10426,10 @@
         <v>282</v>
       </c>
       <c r="E283" t="s">
-        <v>561</v>
+        <v>555</v>
       </c>
       <c r="F283" t="s">
-        <v>562</v>
+        <v>556</v>
       </c>
       <c r="G283" t="n">
         <v>2</v>
@@ -10479,13 +10455,13 @@
         <v>283</v>
       </c>
       <c r="E284" t="s">
-        <v>563</v>
+        <v>425</v>
       </c>
       <c r="F284" t="s">
-        <v>564</v>
+        <v>426</v>
       </c>
       <c r="G284" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H284" t="s">
         <v>4</v>
@@ -10508,10 +10484,10 @@
         <v>284</v>
       </c>
       <c r="E285" t="s">
-        <v>433</v>
+        <v>403</v>
       </c>
       <c r="F285" t="s">
-        <v>434</v>
+        <v>404</v>
       </c>
       <c r="G285" t="n">
         <v>1</v>
@@ -10537,13 +10513,13 @@
         <v>285</v>
       </c>
       <c r="E286" t="s">
-        <v>411</v>
+        <v>557</v>
       </c>
       <c r="F286" t="s">
-        <v>412</v>
+        <v>558</v>
       </c>
       <c r="G286" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H286" t="s">
         <v>4</v>
@@ -10566,13 +10542,13 @@
         <v>286</v>
       </c>
       <c r="E287" t="s">
-        <v>565</v>
+        <v>559</v>
       </c>
       <c r="F287" t="s">
-        <v>566</v>
+        <v>560</v>
       </c>
       <c r="G287" t="n">
-        <v>2</v>
+        <v>3</v>
       </c>
       <c r="H287" t="s">
         <v>4</v>
@@ -10595,13 +10571,13 @@
         <v>287</v>
       </c>
       <c r="E288" t="s">
-        <v>567</v>
+        <v>561</v>
       </c>
       <c r="F288" t="s">
-        <v>568</v>
+        <v>562</v>
       </c>
       <c r="G288" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H288" t="s">
         <v>4</v>
@@ -10624,13 +10600,13 @@
         <v>288</v>
       </c>
       <c r="E289" t="s">
-        <v>569</v>
+        <v>563</v>
       </c>
       <c r="F289" t="s">
-        <v>570</v>
+        <v>564</v>
       </c>
       <c r="G289" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H289" t="s">
         <v>4</v>
@@ -10653,10 +10629,10 @@
         <v>289</v>
       </c>
       <c r="E290" t="s">
-        <v>571</v>
+        <v>565</v>
       </c>
       <c r="F290" t="s">
-        <v>572</v>
+        <v>566</v>
       </c>
       <c r="G290" t="n">
         <v>2</v>
@@ -10682,10 +10658,10 @@
         <v>290</v>
       </c>
       <c r="E291" t="s">
-        <v>573</v>
+        <v>567</v>
       </c>
       <c r="F291" t="s">
-        <v>574</v>
+        <v>568</v>
       </c>
       <c r="G291" t="n">
         <v>2</v>
@@ -10711,13 +10687,13 @@
         <v>291</v>
       </c>
       <c r="E292" t="s">
-        <v>575</v>
+        <v>569</v>
       </c>
       <c r="F292" t="s">
-        <v>576</v>
+        <v>570</v>
       </c>
       <c r="G292" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H292" t="s">
         <v>4</v>
@@ -10740,13 +10716,13 @@
         <v>292</v>
       </c>
       <c r="E293" t="s">
-        <v>577</v>
+        <v>571</v>
       </c>
       <c r="F293" t="s">
-        <v>578</v>
+        <v>572</v>
       </c>
       <c r="G293" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H293" t="s">
         <v>4</v>
@@ -10769,13 +10745,13 @@
         <v>293</v>
       </c>
       <c r="E294" t="s">
-        <v>579</v>
+        <v>573</v>
       </c>
       <c r="F294" t="s">
-        <v>580</v>
+        <v>574</v>
       </c>
       <c r="G294" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H294" t="s">
         <v>4</v>
@@ -10798,13 +10774,13 @@
         <v>294</v>
       </c>
       <c r="E295" t="s">
-        <v>581</v>
+        <v>575</v>
       </c>
       <c r="F295" t="s">
-        <v>582</v>
+        <v>576</v>
       </c>
       <c r="G295" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H295" t="s">
         <v>4</v>
@@ -10827,13 +10803,13 @@
         <v>295</v>
       </c>
       <c r="E296" t="s">
-        <v>583</v>
+        <v>577</v>
       </c>
       <c r="F296" t="s">
-        <v>584</v>
+        <v>578</v>
       </c>
       <c r="G296" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H296" t="s">
         <v>4</v>
@@ -10856,13 +10832,13 @@
         <v>296</v>
       </c>
       <c r="E297" t="s">
-        <v>585</v>
+        <v>579</v>
       </c>
       <c r="F297" t="s">
-        <v>586</v>
+        <v>580</v>
       </c>
       <c r="G297" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H297" t="s">
         <v>4</v>
@@ -10885,13 +10861,13 @@
         <v>297</v>
       </c>
       <c r="E298" t="s">
-        <v>587</v>
+        <v>581</v>
       </c>
       <c r="F298" t="s">
-        <v>588</v>
+        <v>582</v>
       </c>
       <c r="G298" t="n">
-        <v>2</v>
+        <v>6</v>
       </c>
       <c r="H298" t="s">
         <v>4</v>
@@ -10914,13 +10890,13 @@
         <v>298</v>
       </c>
       <c r="E299" t="s">
-        <v>589</v>
+        <v>583</v>
       </c>
       <c r="F299" t="s">
-        <v>590</v>
+        <v>584</v>
       </c>
       <c r="G299" t="n">
-        <v>6</v>
+        <v>1</v>
       </c>
       <c r="H299" t="s">
         <v>4</v>
@@ -10943,13 +10919,13 @@
         <v>299</v>
       </c>
       <c r="E300" t="s">
-        <v>591</v>
+        <v>585</v>
       </c>
       <c r="F300" t="s">
-        <v>592</v>
+        <v>586</v>
       </c>
       <c r="G300" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H300" t="s">
         <v>4</v>
@@ -10972,13 +10948,13 @@
         <v>300</v>
       </c>
       <c r="E301" t="s">
-        <v>593</v>
+        <v>587</v>
       </c>
       <c r="F301" t="s">
-        <v>594</v>
+        <v>588</v>
       </c>
       <c r="G301" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H301" t="s">
         <v>4</v>
@@ -11001,13 +10977,13 @@
         <v>301</v>
       </c>
       <c r="E302" t="s">
-        <v>595</v>
+        <v>589</v>
       </c>
       <c r="F302" t="s">
-        <v>596</v>
+        <v>590</v>
       </c>
       <c r="G302" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H302" t="s">
         <v>4</v>
@@ -11030,13 +11006,13 @@
         <v>302</v>
       </c>
       <c r="E303" t="s">
-        <v>597</v>
+        <v>591</v>
       </c>
       <c r="F303" t="s">
-        <v>598</v>
+        <v>592</v>
       </c>
       <c r="G303" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H303" t="s">
         <v>4</v>
@@ -11059,10 +11035,10 @@
         <v>303</v>
       </c>
       <c r="E304" t="s">
-        <v>599</v>
+        <v>593</v>
       </c>
       <c r="F304" t="s">
-        <v>600</v>
+        <v>594</v>
       </c>
       <c r="G304" t="n">
         <v>1</v>
@@ -11088,10 +11064,10 @@
         <v>304</v>
       </c>
       <c r="E305" t="s">
-        <v>601</v>
+        <v>595</v>
       </c>
       <c r="F305" t="s">
-        <v>602</v>
+        <v>596</v>
       </c>
       <c r="G305" t="n">
         <v>1</v>
@@ -11117,10 +11093,10 @@
         <v>305</v>
       </c>
       <c r="E306" t="s">
-        <v>603</v>
+        <v>597</v>
       </c>
       <c r="F306" t="s">
-        <v>604</v>
+        <v>598</v>
       </c>
       <c r="G306" t="n">
         <v>1</v>
@@ -11146,10 +11122,10 @@
         <v>306</v>
       </c>
       <c r="E307" t="s">
-        <v>605</v>
+        <v>599</v>
       </c>
       <c r="F307" t="s">
-        <v>606</v>
+        <v>600</v>
       </c>
       <c r="G307" t="n">
         <v>1</v>
@@ -11175,13 +11151,13 @@
         <v>307</v>
       </c>
       <c r="E308" t="s">
-        <v>607</v>
+        <v>601</v>
       </c>
       <c r="F308" t="s">
-        <v>608</v>
+        <v>602</v>
       </c>
       <c r="G308" t="n">
-        <v>1</v>
+        <v>2</v>
       </c>
       <c r="H308" t="s">
         <v>4</v>
@@ -11204,10 +11180,10 @@
         <v>308</v>
       </c>
       <c r="E309" t="s">
-        <v>609</v>
+        <v>603</v>
       </c>
       <c r="F309" t="s">
-        <v>610</v>
+        <v>604</v>
       </c>
       <c r="G309" t="n">
         <v>2</v>
@@ -11233,13 +11209,13 @@
         <v>309</v>
       </c>
       <c r="E310" t="s">
-        <v>611</v>
+        <v>605</v>
       </c>
       <c r="F310" t="s">
-        <v>612</v>
+        <v>606</v>
       </c>
       <c r="G310" t="n">
-        <v>2</v>
+        <v>4</v>
       </c>
       <c r="H310" t="s">
         <v>4</v>
@@ -11262,13 +11238,13 @@
         <v>310</v>
       </c>
       <c r="E311" t="s">
-        <v>613</v>
+        <v>607</v>
       </c>
       <c r="F311" t="s">
-        <v>614</v>
+        <v>608</v>
       </c>
       <c r="G311" t="n">
-        <v>4</v>
+        <v>3</v>
       </c>
       <c r="H311" t="s">
         <v>4</v>
@@ -11291,13 +11267,13 @@
         <v>311</v>
       </c>
       <c r="E312" t="s">
-        <v>615</v>
+        <v>609</v>
       </c>
       <c r="F312" t="s">
-        <v>616</v>
+        <v>610</v>
       </c>
       <c r="G312" t="n">
-        <v>3</v>
+        <v>1</v>
       </c>
       <c r="H312" t="s">
         <v>4</v>
@@ -11320,10 +11296,10 @@
         <v>312</v>
       </c>
       <c r="E313" t="s">
-        <v>617</v>
+        <v>611</v>
       </c>
       <c r="F313" t="s">
-        <v>618</v>
+        <v>612</v>
       </c>
       <c r="G313" t="n">
         <v>1</v>
@@ -11349,10 +11325,10 @@
         <v>313</v>
       </c>
       <c r="E314" t="s">
-        <v>619</v>
+        <v>613</v>
       </c>
       <c r="F314" t="s">
-        <v>620</v>
+        <v>614</v>
       </c>
       <c r="G314" t="n">
         <v>1</v>
@@ -11378,10 +11354,10 @@
         <v>314</v>
       </c>
       <c r="E315" t="s">
-        <v>621</v>
+        <v>615</v>
       </c>
       <c r="F315" t="s">
-        <v>622</v>
+        <v>616</v>
       </c>
       <c r="G315" t="n">
         <v>1</v>
@@ -11407,13 +11383,13 @@
         <v>315</v>
       </c>
       <c r="E316" t="s">
-        <v>623</v>
+        <v>617</v>
       </c>
       <c r="F316" t="s">
-        <v>624</v>
+        <v>618</v>
       </c>
       <c r="G316" t="n">
-        <v>1</v>
+        <v>19</v>
       </c>
       <c r="H316" t="s">
         <v>4</v>
@@ -11436,13 +11412,13 @@
         <v>316</v>
       </c>
       <c r="E317" t="s">
-        <v>625</v>
+        <v>617</v>
       </c>
       <c r="F317" t="s">
-        <v>626</v>
+        <v>619</v>
       </c>
       <c r="G317" t="n">
-        <v>19</v>
+        <v>2</v>
       </c>
       <c r="H317" t="s">
         <v>4</v>
@@ -11465,47 +11441,18 @@
         <v>317</v>
       </c>
       <c r="E318" t="s">
-        <v>625</v>
+        <v>620</v>
       </c>
       <c r="F318" t="s">
-        <v>627</v>
+        <v>621</v>
       </c>
       <c r="G318" t="n">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="H318" t="s">
         <v>4</v>
       </c>
       <c r="I318" t="n">
-        <v>3</v>
-      </c>
-    </row>
-    <row r="319" spans="1:9">
-      <c r="A319" s="1" t="n">
-        <v>317</v>
-      </c>
-      <c r="B319" t="s">
-        <v>0</v>
-      </c>
-      <c r="C319" t="s">
-        <v>1</v>
-      </c>
-      <c r="D319" t="n">
-        <v>318</v>
-      </c>
-      <c r="E319" t="s">
-        <v>628</v>
-      </c>
-      <c r="F319" t="s">
-        <v>629</v>
-      </c>
-      <c r="G319" t="n">
-        <v>1</v>
-      </c>
-      <c r="H319" t="s">
-        <v>4</v>
-      </c>
-      <c r="I319" t="n">
         <v>3</v>
       </c>
     </row>
